--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239260.3621474567</v>
+        <v>-241741.2819729167</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>338.3527451838812</v>
@@ -1376,19 +1376,19 @@
         <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>14.65678318579956</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104942</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -1430,13 +1430,13 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>43.772541128457</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>147.0485116719666</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,13 +1531,13 @@
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719018</v>
@@ -1546,7 +1546,7 @@
         <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292094</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>66.29676497333449</v>
       </c>
       <c r="U13" t="n">
-        <v>221.2804445444986</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649684</v>
@@ -1607,19 +1607,19 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>200.3187464985225</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
         <v>267.6876178001941</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>293.0622248910486</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689272</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.95312999363656</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292091</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>173.1816735273858</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184865</v>
@@ -1828,7 +1828,7 @@
         <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649684</v>
@@ -1856,10 +1856,10 @@
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>3.974324134331971</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>97.90474570419534</v>
       </c>
       <c r="W17" t="n">
         <v>275.345685511694</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>155.7512320878722</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>289.4537863070921</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>50.82754388491277</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>168.3363911711803</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249336</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085017</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860179</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.4365636592908</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247717</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249336</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085017</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860179</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,19 +2530,19 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258336</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.0890643413382</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231188</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695832</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,10 +3250,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>124.3541982182268</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>101.8902586125584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592154</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279485</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383222</v>
+        <v>124.3541982182264</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010728</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092315</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862157</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>196.6598613601174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279485</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383222</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092315</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.20693826439458</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333682</v>
+        <v>134.2912433677308</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052276</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846409</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482617</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092315</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.0702946862157</v>
+        <v>89.27723295060967</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.2069382643948</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1766.94258496062</v>
+        <v>1796.226782517379</v>
       </c>
       <c r="C11" t="n">
-        <v>1425.172135279932</v>
+        <v>1454.456332836691</v>
       </c>
       <c r="D11" t="n">
-        <v>1094.098503932905</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E11" t="n">
-        <v>735.5023185943842</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645002</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
         <v>351.7084810645002</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3146.820141253117</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573495</v>
+        <v>2920.481731786676</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489648</v>
+        <v>2616.61091170283</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.512310489648</v>
+        <v>2291.034323692439</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.297622481105</v>
+        <v>1944.760632691083</v>
       </c>
       <c r="Y11" t="n">
-        <v>2126.350357765018</v>
+        <v>1796.226782517379</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.5713293855551</v>
+        <v>710.4145733791415</v>
       </c>
       <c r="C13" t="n">
-        <v>639.8272137173719</v>
+        <v>568.6704577109581</v>
       </c>
       <c r="D13" t="n">
-        <v>516.9026415647598</v>
+        <v>445.7458855583459</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420903</v>
+        <v>445.7458855583459</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420903</v>
+        <v>326.0480053201593</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5218,31 +5218,31 @@
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145083</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974333</v>
+        <v>2010.897289809791</v>
       </c>
       <c r="U13" t="n">
-        <v>1557.918143424335</v>
+        <v>1748.986490195158</v>
       </c>
       <c r="V13" t="n">
-        <v>1330.425722478171</v>
+        <v>1521.494069248994</v>
       </c>
       <c r="W13" t="n">
-        <v>1330.425722478171</v>
+        <v>1259.268966471758</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.628238839878</v>
+        <v>1058.471482833464</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.0277269560712</v>
+        <v>864.8709709496576</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1368.343915929928</v>
+        <v>1669.516223507703</v>
       </c>
       <c r="C14" t="n">
-        <v>1026.57346624924</v>
+        <v>1669.516223507703</v>
       </c>
       <c r="D14" t="n">
-        <v>695.4998349022133</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E14" t="n">
-        <v>336.9036495636926</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F14" t="n">
-        <v>336.9036495636926</v>
+        <v>724.7840324589727</v>
       </c>
       <c r="G14" t="n">
         <v>336.9036495636926</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395989</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.16881092955</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.297990845703</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.721402835312</v>
+        <v>2738.144952029546</v>
       </c>
       <c r="X14" t="n">
-        <v>2090.698953450414</v>
+        <v>2391.87126102819</v>
       </c>
       <c r="Y14" t="n">
-        <v>1727.751688734326</v>
+        <v>2028.923996312101</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158135</v>
@@ -5376,7 +5376,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125857</v>
@@ -5385,16 +5385,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>592.4125999412064</v>
+        <v>480.9510275436839</v>
       </c>
       <c r="C16" t="n">
-        <v>450.6684842730223</v>
+        <v>339.2069118755007</v>
       </c>
       <c r="D16" t="n">
-        <v>327.7439121204102</v>
+        <v>339.2069118755007</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0228857977408</v>
+        <v>218.4858855528312</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0228857977408</v>
+        <v>98.78800531464449</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>98.78800531464449</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
@@ -5455,31 +5455,31 @@
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145083</v>
       </c>
       <c r="T16" t="n">
-        <v>1738.43891880134</v>
+        <v>1781.433743974333</v>
       </c>
       <c r="U16" t="n">
-        <v>1476.528119186707</v>
+        <v>1519.5229443597</v>
       </c>
       <c r="V16" t="n">
-        <v>1249.035698240544</v>
+        <v>1292.030523413537</v>
       </c>
       <c r="W16" t="n">
-        <v>986.8105954633065</v>
+        <v>1029.8054206363</v>
       </c>
       <c r="X16" t="n">
-        <v>786.0131118250129</v>
+        <v>829.0079369980065</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.4125999412064</v>
+        <v>635.4074251142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542003</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809388</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9592424104346</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8126900199874</v>
+        <v>966.2289711446368</v>
       </c>
       <c r="F17" t="n">
-        <v>293.4684854381768</v>
+        <v>629.8847665628261</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,7 +5513,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810562</v>
@@ -5546,19 +5546,19 @@
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281942</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219625</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166342</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398328</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625797</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666653</v>
+        <v>1853.377083860393</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934039</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535085</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446377</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628271</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3289.956853344063</v>
+        <v>3194.26977420119</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.068076825696</v>
+        <v>3015.380997682823</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406592</v>
+        <v>2758.95981054705</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344276</v>
+        <v>2480.832855484733</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290993</v>
+        <v>2480.832855484733</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522978</v>
+        <v>2165.335223716718</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872287</v>
+        <v>569.1217789872288</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671188</v>
+        <v>474.8272962671189</v>
       </c>
       <c r="D22" t="n">
-        <v>399.35235706258</v>
+        <v>399.3523570625801</v>
       </c>
       <c r="E22" t="n">
         <v>326.0809636879839</v>
@@ -5902,22 +5902,22 @@
         <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604111</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917492</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356249</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454045</v>
+        <v>885.30941668173</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096714</v>
+        <v>739.1585377459968</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925384</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349365</v>
+        <v>973.0946095349359</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531259</v>
+        <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
         <v>73.3777548224824</v>
@@ -5987,28 +5987,28 @@
         <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6625348018608</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917071</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.04802641204</v>
+        <v>1580.642377391687</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470822</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.799314350159</v>
+        <v>2648.22922536469</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573680707337</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893065</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6017,7 +6017,7 @@
         <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932665</v>
@@ -6029,10 +6029,10 @@
         <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681292</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913277</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714073</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902804</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290291</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235736</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504586</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830767</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094419</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
@@ -6069,16 +6069,16 @@
         <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061124</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821906</v>
+        <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656429</v>
+        <v>1324.38512865643</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891475</v>
+        <v>1116.624829891476</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775277</v>
+        <v>575.9874173775278</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574177</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528789</v>
+        <v>406.2179954528791</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782828</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.0617317963401</v>
+        <v>96.06173179634013</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
@@ -6175,7 +6175,7 @@
         <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1654.802330256062</v>
       </c>
       <c r="U25" t="n">
         <v>1440.341163589503</v>
@@ -6184,13 +6184,13 @@
         <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259242</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720292</v>
+        <v>829.1450609357038</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999704</v>
+        <v>682.9941819999706</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>343.9659746953266</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>677.7853483851729</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1128.819561633582</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M26" t="n">
-        <v>1662.351466305506</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N26" t="n">
-        <v>2642.103738532152</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.076209411489</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6324,7 +6324,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6379,7 +6379,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,13 +6388,13 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
         <v>1910.743863481263</v>
@@ -6440,73 +6440,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910139</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.992678104634</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776558</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.30339983534</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456137</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644868</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032356</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.55376099778</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246651</v>
       </c>
       <c r="G30" t="n">
         <v>190.6561028572837</v>
@@ -6537,22 +6537,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6570,13 +6570,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
         <v>1540.005790936169</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982173</v>
@@ -6649,13 +6649,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>1002.369923216576</v>
       </c>
       <c r="L32" t="n">
         <v>1453.404136464984</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.936041136908</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.71485819569</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075027</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P32" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6795,31 +6795,31 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,67 +6832,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307339</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6959,13 +6959,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
         <v>765.151745215813</v>
@@ -7038,28 +7038,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.4050786964419</v>
+        <v>796.9451341124657</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1403303423784</v>
+        <v>628.0089511845588</v>
       </c>
       <c r="D37" t="n">
-        <v>379.22087719838</v>
+        <v>477.8923117722231</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898302</v>
+        <v>329.97921818983</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1522.683025816216</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1332.251593515703</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1077.567105309816</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>886.821369846699</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>757.503253522525</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528383</v>
+        <v>922.5554353429978</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495727</v>
@@ -7272,7 +7272,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647787</v>
+        <v>500.9308303909354</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107153</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722231</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>329.97921818983</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404821</v>
@@ -7366,16 +7366,16 @@
         <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151996</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.689990688879</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X40" t="n">
-        <v>804.7004397908615</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211749</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7442,13 +7442,13 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>698.2736995386222</v>
+        <v>500.9308303909354</v>
       </c>
       <c r="C43" t="n">
-        <v>529.3375166107153</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>379.2208771983795</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>329.97921818983</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657631</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218339</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1884.661277114356</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.646827515026</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
         <v>1668.551646658396</v>
       </c>
       <c r="U43" t="n">
-        <v>1478.120214357883</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.10716072584</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.689990688879</v>
+        <v>934.0185561150356</v>
       </c>
       <c r="X43" t="n">
-        <v>903.371874364705</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.2507297950184</v>
+        <v>583.9078606473316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7719,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170916</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630282</v>
+        <v>473.2993530110072</v>
       </c>
       <c r="D46" t="n">
-        <v>280.549442624536</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159864</v>
+        <v>273.9410545901219</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919196</v>
+        <v>225.722541666055</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>156.6911396146174</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1884.661277114356</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.646827515026</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1569.880212084552</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1379.448779784039</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1124.764291578152</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>835.3471215411918</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170179</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9078606473313</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430623</v>
+        <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728996</v>
+        <v>184.4039433729008</v>
       </c>
       <c r="L8" t="n">
-        <v>191.494890938959</v>
+        <v>191.4948909389604</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333051</v>
+        <v>181.0856325333068</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830225</v>
+        <v>179.3553748830241</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383975</v>
+        <v>182.8301554383991</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586572</v>
+        <v>190.8908035586585</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266114</v>
+        <v>192.0103836266124</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.656200187597</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372525</v>
+        <v>113.6031223372533</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672263</v>
+        <v>105.9629718672274</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253581</v>
+        <v>104.1013981253593</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677528</v>
+        <v>92.30246558677658</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359724</v>
+        <v>106.8829608359736</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798315</v>
+        <v>105.3113487798324</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615451</v>
+        <v>120.8212784615458</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564652</v>
+        <v>116.1755252564658</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085221</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140771</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530919</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662699</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>18.0157172069529</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.0013903333793</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.735589532676386e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>74.68679478748692</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>233.4533865158199</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>19.40311602546592</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>78.40458911672786</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>233.4533865158199</v>
       </c>
       <c r="L32" t="n">
-        <v>233.4533865158194</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>299.0384129628856</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>212.2692803969606</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>126.3320377157083</v>
       </c>
       <c r="U13" t="n">
-        <v>38.0112470739879</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>127.444148535034</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>49.74872920029404</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>85.88173833355782</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292094</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>19.44712916165693</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.0521183134024</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>155.9522295602206</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.923822258196528</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24017,22 +24017,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>203.0294313795031</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>978839.3804993385</v>
+        <v>978839.3804993384</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>978839.3804993384</v>
+        <v>978839.380499338</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1064952.217451908</v>
+        <v>1064952.217451907</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1064952.217451907</v>
+        <v>1064952.217451908</v>
       </c>
     </row>
     <row r="9">
@@ -26317,34 +26317,34 @@
         <v>348192.4439547413</v>
       </c>
       <c r="D2" t="n">
-        <v>348201.9346675274</v>
+        <v>348201.9346675273</v>
       </c>
       <c r="E2" t="n">
         <v>310054.5003846145</v>
       </c>
       <c r="F2" t="n">
-        <v>310054.5003846146</v>
+        <v>310054.5003846144</v>
       </c>
       <c r="G2" t="n">
-        <v>337675.5990297784</v>
+        <v>337675.5990297785</v>
       </c>
       <c r="H2" t="n">
-        <v>337675.5990297784</v>
+        <v>337675.5990297786</v>
       </c>
       <c r="I2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="J2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="K2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923202</v>
@@ -26353,7 +26353,7 @@
         <v>348942.7521923202</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923207</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552477</v>
+        <v>59764.5536755228</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487392</v>
+        <v>37580.1092948741</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983372</v>
+        <v>22821.46782983352</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179692</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487416</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954644</v>
+        <v>430603.4278954651</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364976</v>
+        <v>40024.16194364971</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364973</v>
+        <v>40024.16194364971</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509202</v>
+        <v>77052.32230509198</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509201</v>
+        <v>77052.32230509195</v>
       </c>
       <c r="I4" t="n">
         <v>90617.51027754389</v>
@@ -26442,22 +26442,22 @@
         <v>88960.95519699587</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.9551969958</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699586</v>
+        <v>88960.95519699594</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818182</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818183</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818183</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818175</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186641</v>
+        <v>35148.90543186636</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26485,7 +26485,7 @@
         <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26494,7 +26494,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137835.1465942238</v>
+        <v>-137839.560172092</v>
       </c>
       <c r="C6" t="n">
-        <v>-137835.1465942238</v>
+        <v>-137839.5601720919</v>
       </c>
       <c r="D6" t="n">
-        <v>-177314.9523353282</v>
+        <v>-177319.3100854727</v>
       </c>
       <c r="E6" t="n">
-        <v>-895778.1240874915</v>
+        <v>-896006.878509892</v>
       </c>
       <c r="F6" t="n">
-        <v>193460.8480761384</v>
+        <v>193232.09365374</v>
       </c>
       <c r="G6" t="n">
-        <v>142524.5243045976</v>
+        <v>142458.2469330532</v>
       </c>
       <c r="H6" t="n">
-        <v>180104.6335994716</v>
+        <v>180038.3562279274</v>
       </c>
       <c r="I6" t="n">
-        <v>149767.2457831006</v>
+        <v>149767.2457831009</v>
       </c>
       <c r="J6" t="n">
         <v>145194.4222987215</v>
       </c>
       <c r="K6" t="n">
-        <v>170603.8553205185</v>
+        <v>170603.8553205184</v>
       </c>
       <c r="L6" t="n">
-        <v>133023.7460256443</v>
+        <v>133023.746025644</v>
       </c>
       <c r="M6" t="n">
-        <v>-27927.84402483504</v>
+        <v>-27927.84402483526</v>
       </c>
       <c r="N6" t="n">
-        <v>174240.2559678885</v>
+        <v>174240.2559678887</v>
       </c>
       <c r="O6" t="n">
         <v>174240.2559678886</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790874</v>
+        <v>69.78465283790644</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951243</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790874</v>
+        <v>69.78465283790644</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755389</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104723</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780169</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672089</v>
+        <v>84.22861846672106</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987486</v>
+        <v>90.83829126987517</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519055</v>
+        <v>84.46220888519083</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989847</v>
+        <v>7.649035050990328</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317017</v>
+        <v>75.62456067317052</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
-        <v>11.49558901075559</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075702</v>
       </c>
       <c r="C22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075655</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="S22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="S25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W25" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075744</v>
       </c>
       <c r="X25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.49558901075656</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="26">
@@ -29460,7 +29460,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859205</v>
       </c>
       <c r="M28" t="n">
         <v>46.97513661859259</v>
@@ -29469,7 +29469,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
         <v>46.97513661859259</v>
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K34" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185908</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371046</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>46.72521440565394</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810508</v>
+        <v>55.47778196371091</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.47778196371064</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.72521440565276</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810508</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30855,22 +30855,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810508</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810508</v>
+        <v>55.47778196371111</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.72521440565254</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810508</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413415</v>
+        <v>0.2805413179413322</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366764</v>
+        <v>2.873093772366669</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993358</v>
+        <v>10.81556915993322</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362395</v>
+        <v>23.81059368362316</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208094</v>
+        <v>35.68590767207976</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102828</v>
+        <v>44.27152403102681</v>
       </c>
       <c r="M8" t="n">
-        <v>49.2606006939676</v>
+        <v>49.26060069396598</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356845</v>
+        <v>50.0576887135668</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328923</v>
+        <v>47.26805598328767</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661236</v>
+        <v>40.34219219661102</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783806</v>
+        <v>30.29530624783706</v>
       </c>
       <c r="R8" t="n">
-        <v>17.6225535631328</v>
+        <v>17.62255356313223</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588325</v>
+        <v>6.392835282588114</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288223</v>
+        <v>1.228069619288182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530731</v>
+        <v>0.02244330543530657</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796528</v>
+        <v>0.1501028381796478</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840331</v>
+        <v>1.449677410840283</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694185</v>
+        <v>5.168014384694015</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906974</v>
+        <v>14.18142647906927</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710647</v>
+        <v>24.23831663710567</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264785</v>
+        <v>32.59140791264678</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666026</v>
+        <v>38.032635796659</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655802</v>
+        <v>39.03924649655674</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847203</v>
+        <v>35.71328360847085</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449878</v>
+        <v>28.66305863449784</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447638</v>
+        <v>19.16049562447575</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768269</v>
+        <v>9.319542882767962</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608899</v>
+        <v>2.788094384608807</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890388</v>
+        <v>0.6050197731890188</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00987518672234558</v>
+        <v>0.009875186722345254</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486879</v>
+        <v>0.1258411772486837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811062</v>
+        <v>1.118842466811025</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078724</v>
+        <v>3.784387403078599</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482231</v>
+        <v>8.896971231481938</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489301</v>
+        <v>14.62045677489252</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477311</v>
+        <v>18.70915102477249</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908295</v>
+        <v>19.7261765390823</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115604</v>
+        <v>19.25713215115541</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875091</v>
+        <v>17.78707839875032</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287766</v>
+        <v>15.21991838287716</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852422</v>
+        <v>10.53748257852387</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381909</v>
+        <v>5.658276933381723</v>
       </c>
       <c r="S10" t="n">
-        <v>2.19306851623395</v>
+        <v>2.193068516233878</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625753</v>
+        <v>0.5376850300625576</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564801</v>
+        <v>0.006864064213564574</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33512,7 +33512,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>72.49856320019262</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573245</v>
@@ -35580,7 +35580,7 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322368</v>
@@ -35823,7 +35823,7 @@
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>526.0687180951719</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>355.7956951370987</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.4737957561994</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>689.0435009081518</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887901</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
@@ -36765,7 +36765,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>474.9932304177979</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>329.1988939204473</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,10 +37069,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>570.6446730712203</v>
       </c>
       <c r="L32" t="n">
-        <v>689.0435009081514</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37160,7 +37160,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629116</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,16 +37236,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637012</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37552,10 +37552,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
